--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>63.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>59.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>47.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>36.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>85.55</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>60.66</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.63</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>60.66</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1362,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1238,25 +1506,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1322,25 +1620,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1731,4 +1732,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2966,4 +2967,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3175,4 +3176,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3184,7 +3185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,17 +3196,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3215,14 +3236,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3231,14 +3274,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.96</v>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3247,14 +3312,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.09</v>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3263,13 +3350,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3773,7 +3774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3784,17 +3785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3804,14 +3825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.03</v>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3820,14 +3863,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3836,14 +3901,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.96</v>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3852,14 +3939,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.09</v>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3868,13 +3977,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4096,7 +4097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4107,17 +4108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4127,14 +4148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4143,14 +4186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4159,14 +4224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4175,14 +4262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.96</v>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4191,14 +4300,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.09</v>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4207,13 +4338,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>13.96</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>7.09</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.24</v>
       </c>
     </row>
@@ -600,6 +617,894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1907,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +4652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600699-均胜电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>13.96</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>7.09</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,924 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005796</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005797</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +1580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.95</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>39.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4227</t>
+          <t>0.3004</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4215</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015110</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>惠升领先优选混合A</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.38</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014786</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>惠升品质优选混合A</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>562500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>华夏中证机器人ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1770,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>39.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1808,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015043</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得时代动力混合A</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,32 +1846,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>562500</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证机器人ETF</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,36 +1884,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1922,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>天弘中证机器人ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>99.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1960,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>010571</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证机器人ETF</t>
+          <t>新沃创新领航混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.68</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1091,12 +1998,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1106,21 +2013,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +2036,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>562360</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华中证机器人ETF</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>97.23</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1167,32 +2074,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>015097</t>
+          <t>562360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东财数字经济优选混合C</t>
+          <t>银华中证机器人ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1205,36 +2112,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>015096</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东财数字经济优选混合A</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +2150,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>015044</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西部利得时代动力混合C</t>
+          <t>弘毅远方消费升级混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +2188,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>012143</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>新沃内需增长混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +2226,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010466</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏扬景创混合C</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1357,27 +2264,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>015870</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>富安达先进制造混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>83.11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1386,7 +2293,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2302,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010465</t>
+          <t>012144</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏扬景创混合A</t>
+          <t>新沃内需增长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1433,34 +2340,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>015111</t>
+          <t>014422</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>惠升领先优选混合C</t>
+          <t>弘毅远方消费升级混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.38</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1469,12 +2378,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>014787</t>
+          <t>015886</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>惠升品质优选混合C</t>
+          <t>富安达先进制造混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1484,19 +2393,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>83.11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1505,6 +2414,894 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2224,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2812,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4254,7 +6051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4650,894 +6447,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3385</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001616</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实环保低碳股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>47.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3681</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3849</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6232</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005796</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4636</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009870</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3687</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2050</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000534</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长盛高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1088</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0699</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005797</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>